--- a/Resources/2018_BLS_States.xlsx
+++ b/Resources/2018_BLS_States.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8139ed7acd5c9629/Desktop/SMU/Group2_Capstone/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91871853-B3B3-4E9C-953D-516508170CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{91871853-B3B3-4E9C-953D-516508170CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F03C650E-E19C-417F-8B8F-A5AB91DD51D3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ADFF1943-113D-4639-BEC1-988FAF2A52A8}"/>
   </bookViews>
@@ -61,9 +61,6 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Women</t>
-  </si>
-  <si>
     <t>Alabama</t>
   </si>
   <si>
@@ -217,7 +214,10 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Men</t>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
   </si>
 </sst>
 </file>
@@ -600,9 +600,9 @@
   <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A565" sqref="A565"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,7 +636,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C2" s="4">
         <v>51425</v>
@@ -650,10 +650,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C3" s="4">
         <v>749</v>
@@ -667,10 +667,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C4" s="4">
         <v>113</v>
@@ -684,10 +684,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C5" s="4">
         <v>1062</v>
@@ -701,10 +701,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C6" s="4">
         <v>462</v>
@@ -718,10 +718,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C7" s="4">
         <v>5800</v>
@@ -735,10 +735,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C8" s="4">
         <v>922</v>
@@ -752,10 +752,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C9" s="4">
         <v>597</v>
@@ -769,10 +769,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C10" s="4">
         <v>174</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C11" s="4">
         <v>160</v>
@@ -803,10 +803,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C12" s="4">
         <v>3357</v>
@@ -820,10 +820,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C13" s="4">
         <v>1749</v>
@@ -837,10 +837,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C14" s="4">
         <v>234</v>
@@ -854,10 +854,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C15" s="4">
         <v>234</v>
@@ -871,10 +871,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C16" s="4">
         <v>2049</v>
@@ -888,10 +888,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C17" s="4">
         <v>1092</v>
@@ -905,10 +905,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C18" s="4">
         <v>523</v>
@@ -922,10 +922,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C19" s="4">
         <v>467</v>
@@ -939,10 +939,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C20" s="4">
         <v>691</v>
@@ -956,10 +956,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C21" s="4">
         <v>690</v>
@@ -973,10 +973,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C22" s="4">
         <v>209</v>
@@ -990,10 +990,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C23" s="4">
         <v>1085</v>
@@ -1007,10 +1007,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C24" s="4">
         <v>1231</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C25" s="4">
         <v>1483</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C26" s="4">
         <v>948</v>
@@ -1058,10 +1058,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C27" s="4">
         <v>458</v>
@@ -1075,10 +1075,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C28" s="4">
         <v>1013</v>
@@ -1092,10 +1092,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C29" s="4">
         <v>143</v>
@@ -1109,10 +1109,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C30" s="4">
         <v>318</v>
@@ -1126,10 +1126,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C31" s="4">
         <v>501</v>
@@ -1143,10 +1143,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C32" s="4">
         <v>234</v>
@@ -1160,10 +1160,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C33" s="4">
         <v>1487</v>
@@ -1177,10 +1177,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C34" s="4">
         <v>293</v>
@@ -1194,10 +1194,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C35" s="4">
         <v>3230</v>
@@ -1211,10 +1211,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C36" s="4">
         <v>1700</v>
@@ -1228,10 +1228,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C37" s="4">
         <v>122</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C38" s="4">
         <v>1822</v>
@@ -1262,10 +1262,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C39" s="4">
         <v>579</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C40" s="4">
         <v>598</v>
@@ -1296,10 +1296,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C41" s="4">
         <v>1991</v>
@@ -1313,10 +1313,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C42" s="4">
         <v>181</v>
@@ -1330,10 +1330,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C43" s="4">
         <v>773</v>
@@ -1347,10 +1347,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C44" s="4">
         <v>143</v>
@@ -1364,10 +1364,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C45" s="4">
         <v>1051</v>
@@ -1381,10 +1381,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C46" s="4">
         <v>4362</v>
@@ -1398,10 +1398,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C47" s="4">
         <v>394</v>
@@ -1415,10 +1415,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C48" s="4">
         <v>105</v>
@@ -1432,10 +1432,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C49" s="4">
         <v>1464</v>
@@ -1449,10 +1449,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C50" s="4">
         <v>1114</v>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C51" s="4">
         <v>259</v>
@@ -1483,10 +1483,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C52" s="4">
         <v>933</v>
@@ -1500,10 +1500,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C53" s="4">
         <v>77</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>58</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>58</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>58</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>58</v>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>58</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>58</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>58</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>58</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>58</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>58</v>
@@ -1704,7 +1704,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>58</v>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>58</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>58</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>58</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>58</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>58</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>58</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>58</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>58</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>58</v>
@@ -1874,7 +1874,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>58</v>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>58</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>58</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>58</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>58</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>58</v>
@@ -1976,7 +1976,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>58</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>58</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>58</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>58</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>58</v>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>58</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>58</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>58</v>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>58</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>58</v>
@@ -2146,7 +2146,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>58</v>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>58</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>58</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>58</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>58</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>58</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>58</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>58</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>58</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>58</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>58</v>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>58</v>
@@ -2350,7 +2350,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>58</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>58</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>58</v>
